--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H2">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I2">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J2">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="N2">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="O2">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="P2">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="Q2">
-        <v>35.20668373137067</v>
+        <v>153.9053550335427</v>
       </c>
       <c r="R2">
-        <v>316.860153582336</v>
+        <v>1385.148195301884</v>
       </c>
       <c r="S2">
-        <v>0.02754958725877841</v>
+        <v>0.06066104366783558</v>
       </c>
       <c r="T2">
-        <v>0.0275495872587784</v>
+        <v>0.06066104366783555</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H3">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I3">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J3">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>2.585148666666667</v>
       </c>
       <c r="N3">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="O3">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="P3">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="Q3">
-        <v>2.262105042415111</v>
+        <v>3.960812263295333</v>
       </c>
       <c r="R3">
-        <v>20.358945381736</v>
+        <v>35.647310369658</v>
       </c>
       <c r="S3">
-        <v>0.00177012014906158</v>
+        <v>0.001561134800095112</v>
       </c>
       <c r="T3">
-        <v>0.001770120149061579</v>
+        <v>0.001561134800095111</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H4">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I4">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J4">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="N4">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="O4">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="P4">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="Q4">
-        <v>29.85390478330578</v>
+        <v>67.168299965923</v>
       </c>
       <c r="R4">
-        <v>268.6851430497521</v>
+        <v>604.514699693307</v>
       </c>
       <c r="S4">
-        <v>0.02336098341776209</v>
+        <v>0.02647405723107635</v>
       </c>
       <c r="T4">
-        <v>0.02336098341776209</v>
+        <v>0.02647405723107634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8750386666666667</v>
+        <v>1.532141</v>
       </c>
       <c r="H5">
-        <v>2.625116</v>
+        <v>4.596423</v>
       </c>
       <c r="I5">
-        <v>0.05304058862308838</v>
+        <v>0.08900664250669833</v>
       </c>
       <c r="J5">
-        <v>0.05304058862308837</v>
+        <v>0.08900664250669831</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="N5">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="O5">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="P5">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="Q5">
-        <v>0.4599273235093334</v>
+        <v>0.7875444775423333</v>
       </c>
       <c r="R5">
-        <v>4.139345911584001</v>
+        <v>7.087900297880999</v>
       </c>
       <c r="S5">
-        <v>0.0003598977974862923</v>
+        <v>0.0003104068076913007</v>
       </c>
       <c r="T5">
-        <v>0.0003598977974862923</v>
+        <v>0.0003104068076913005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>31.85826</v>
       </c>
       <c r="I6">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J6">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="N6">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="O6">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="P6">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="Q6">
-        <v>427.26633186944</v>
+        <v>1066.733156641787</v>
       </c>
       <c r="R6">
-        <v>3845.39698682496</v>
+        <v>9600.598409776081</v>
       </c>
       <c r="S6">
-        <v>0.3343402401199984</v>
+        <v>0.4204476613752171</v>
       </c>
       <c r="T6">
-        <v>0.3343402401199983</v>
+        <v>0.4204476613752169</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>31.85826</v>
       </c>
       <c r="I7">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J7">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>2.585148666666667</v>
       </c>
       <c r="N7">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="O7">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="P7">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="Q7">
         <v>27.45277945377333</v>
@@ -883,10 +883,10 @@
         <v>247.07501508396</v>
       </c>
       <c r="S7">
-        <v>0.02148207848340513</v>
+        <v>0.0108203788808119</v>
       </c>
       <c r="T7">
-        <v>0.02148207848340513</v>
+        <v>0.0108203788808119</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>31.85826</v>
       </c>
       <c r="I8">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J8">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="N8">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="O8">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="P8">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="Q8">
-        <v>362.3053078804134</v>
+        <v>465.55009494826</v>
       </c>
       <c r="R8">
-        <v>3260.747770923721</v>
+        <v>4189.95085453434</v>
       </c>
       <c r="S8">
-        <v>0.2835075796950509</v>
+        <v>0.1834942951339575</v>
       </c>
       <c r="T8">
-        <v>0.2835075796950509</v>
+        <v>0.1834942951339575</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>31.85826</v>
       </c>
       <c r="I9">
-        <v>0.6436975977089742</v>
+        <v>0.6169137955113024</v>
       </c>
       <c r="J9">
-        <v>0.6436975977089741</v>
+        <v>0.6169137955113023</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="N9">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="O9">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="P9">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="Q9">
-        <v>5.581652107359999</v>
+        <v>5.458548250913333</v>
       </c>
       <c r="R9">
-        <v>50.23486896624</v>
+        <v>49.12693425822</v>
       </c>
       <c r="S9">
-        <v>0.004367699410519629</v>
+        <v>0.002151460121315957</v>
       </c>
       <c r="T9">
-        <v>0.004367699410519629</v>
+        <v>0.002151460121315956</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H10">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I10">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J10">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="N10">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="O10">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="P10">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="Q10">
-        <v>185.0849588238933</v>
+        <v>492.4381176969809</v>
       </c>
       <c r="R10">
-        <v>1665.76462941504</v>
+        <v>4431.943059272829</v>
       </c>
       <c r="S10">
-        <v>0.1448308583197462</v>
+        <v>0.1940920779190103</v>
       </c>
       <c r="T10">
-        <v>0.1448308583197462</v>
+        <v>0.1940920779190103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H11">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I11">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J11">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>2.585148666666667</v>
       </c>
       <c r="N11">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="O11">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="P11">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="Q11">
-        <v>11.89210610761556</v>
+        <v>12.67308038153178</v>
       </c>
       <c r="R11">
-        <v>107.02895496854</v>
+        <v>114.057723433786</v>
       </c>
       <c r="S11">
-        <v>0.00930569369731579</v>
+        <v>0.00499503270865749</v>
       </c>
       <c r="T11">
-        <v>0.009305693697315789</v>
+        <v>0.004995032708657489</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H12">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I12">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J12">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="N12">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="O12">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="P12">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="Q12">
-        <v>156.9448795493089</v>
+        <v>214.9128027216243</v>
       </c>
       <c r="R12">
-        <v>1412.50391594378</v>
+        <v>1934.215224494619</v>
       </c>
       <c r="S12">
-        <v>0.1228109607525883</v>
+        <v>0.08470683107700894</v>
       </c>
       <c r="T12">
-        <v>0.1228109607525883</v>
+        <v>0.0847068310770089</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.600163333333334</v>
+        <v>4.902263666666666</v>
       </c>
       <c r="H13">
-        <v>13.80049</v>
+        <v>14.706791</v>
       </c>
       <c r="I13">
-        <v>0.2788395304767656</v>
+        <v>0.2847871244569372</v>
       </c>
       <c r="J13">
-        <v>0.2788395304767655</v>
+        <v>0.2847871244569371</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="N13">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="O13">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="P13">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="Q13">
-        <v>2.417882649306667</v>
+        <v>2.519840326797444</v>
       </c>
       <c r="R13">
-        <v>21.76094384376</v>
+        <v>22.678562941177</v>
       </c>
       <c r="S13">
-        <v>0.001892017707115267</v>
+        <v>0.0009931827522604319</v>
       </c>
       <c r="T13">
-        <v>0.001892017707115267</v>
+        <v>0.0009931827522604315</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H14">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I14">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J14">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="N14">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="O14">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="P14">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="Q14">
-        <v>16.21074770530133</v>
+        <v>16.06796814422133</v>
       </c>
       <c r="R14">
-        <v>145.896729347712</v>
+        <v>144.611713297992</v>
       </c>
       <c r="S14">
-        <v>0.01268507456836389</v>
+        <v>0.006333111132082257</v>
       </c>
       <c r="T14">
-        <v>0.01268507456836389</v>
+        <v>0.006333111132082255</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H15">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I15">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J15">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>2.585148666666667</v>
       </c>
       <c r="N15">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="O15">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="P15">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="Q15">
-        <v>1.041575355556889</v>
+        <v>0.4135152104226666</v>
       </c>
       <c r="R15">
-        <v>9.374178200011999</v>
+        <v>3.721636893804</v>
       </c>
       <c r="S15">
-        <v>0.0008150432844925748</v>
+        <v>0.0001629849996531741</v>
       </c>
       <c r="T15">
-        <v>0.0008150432844925747</v>
+        <v>0.0001629849996531741</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H16">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I16">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J16">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="N16">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="O16">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="P16">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="Q16">
-        <v>13.74608645769822</v>
+        <v>7.012479220874</v>
       </c>
       <c r="R16">
-        <v>123.714778119284</v>
+        <v>63.11231298786599</v>
       </c>
       <c r="S16">
-        <v>0.01075645213342352</v>
+        <v>0.002763934420244945</v>
       </c>
       <c r="T16">
-        <v>0.01075645213342352</v>
+        <v>0.002763934420244944</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.4029073333333333</v>
+        <v>0.159958</v>
       </c>
       <c r="H17">
-        <v>1.208722</v>
+        <v>0.479874</v>
       </c>
       <c r="I17">
-        <v>0.02442228319117198</v>
+        <v>0.009292437525062282</v>
       </c>
       <c r="J17">
-        <v>0.02442228319117197</v>
+        <v>0.009292437525062281</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="N17">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="O17">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="P17">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="Q17">
-        <v>0.2117713176586666</v>
+        <v>0.08222091800866665</v>
       </c>
       <c r="R17">
-        <v>1.905941858928</v>
+        <v>0.7399882620779999</v>
       </c>
       <c r="S17">
-        <v>0.0001657132048919842</v>
+        <v>3.240697308190634E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001657132048919842</v>
+        <v>3.240697308190633E-05</v>
       </c>
     </row>
   </sheetData>
